--- a/exFAT cluster bitmap allocation.xlsx
+++ b/exFAT cluster bitmap allocation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oiai\Documents\IACIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D75A1F8-E8AF-42CB-B078-77BC83CD38F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9919B8-1043-44CF-941C-FF8CC22B17CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DF6241DE-3F82-4824-B61B-24CE80B78F2A}"/>
   </bookViews>
@@ -659,7 +659,9 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4">
+        <v>286</v>
+      </c>
       <c r="D2" s="11" t="s">
         <v>49</v>
       </c>
@@ -676,7 +678,7 @@
       </c>
       <c r="C4" s="2">
         <f>ROUNDUP(C2/8,0)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>47</v>
@@ -696,7 +698,9 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
+      <c r="C5" s="9">
+        <v>27</v>
+      </c>
       <c r="D5" s="11" t="s">
         <v>48</v>
       </c>
@@ -741,73 +745,73 @@
         <v>11</v>
       </c>
       <c r="C8" s="7">
-        <f>C4*8</f>
-        <v>0</v>
+        <f>C4*8+1</f>
+        <v>289</v>
       </c>
       <c r="D8" s="7">
         <f>C8-1</f>
-        <v>-1</v>
+        <v>288</v>
       </c>
       <c r="E8" s="7">
         <f t="shared" ref="E8:J8" si="0">D8-1</f>
-        <v>-2</v>
+        <v>287</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>-3</v>
+        <v>286</v>
       </c>
       <c r="G8" s="7">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>285</v>
       </c>
       <c r="H8" s="7">
         <f t="shared" si="0"/>
-        <v>-5</v>
+        <v>284</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="0"/>
-        <v>-6</v>
+        <v>283</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="0"/>
-        <v>-7</v>
+        <v>282</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="8" t="e">
+      <c r="C9" s="8" t="str">
         <f>MID(VLOOKUP(LEFT(C5,1),binary_lookup[],2,FALSE),1,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D9" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8" t="str">
         <f>MID(VLOOKUP(LEFT(C5,1),binary_lookup[],2,FALSE),2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E9" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8" t="str">
         <f>MID(VLOOKUP(LEFT(C5,1),binary_lookup[],2,FALSE),3,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F9" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="F9" s="8" t="str">
         <f>MID(VLOOKUP(LEFT(C5,1),binary_lookup[],2,FALSE),4,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G9" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="str">
         <f>MID(VLOOKUP(RIGHT(C5,1),binary_lookup[],2,FALSE),1,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H9" s="8" t="e">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8" t="str">
         <f>MID(VLOOKUP(RIGHT(C5,1),binary_lookup[],2,FALSE),2,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="I9" s="8" t="str">
         <f>MID(VLOOKUP(RIGHT(C5,1),binary_lookup[],2,FALSE),3,1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="8" t="e">
+        <v>1</v>
+      </c>
+      <c r="J9" s="8" t="str">
         <f>MID(VLOOKUP(RIGHT(C5,1),binary_lookup[],2,FALSE),4,1)</f>
-        <v>#N/A</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
